--- a/excelRPA/test002.xlsx
+++ b/excelRPA/test002.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="SheetSheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -785,11 +786,13 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>testB</t>
+          <t>히히</t>
         </is>
       </c>
-      <c r="C1" t="n">
-        <v>6</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>바보</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1122,4 +1125,68 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>